--- a/intercomparison_report_R/ILC acknowledgment.xlsx
+++ b/intercomparison_report_R/ILC acknowledgment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="14370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,127 +24,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>ADAMS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>BILIC</t>
+  </si>
+  <si>
+    <t>Marijo</t>
+  </si>
+  <si>
+    <t>DAVIES</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>HECTOR</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>HERCOG</t>
+  </si>
+  <si>
+    <t>Predrag</t>
+  </si>
+  <si>
+    <t>LEPRI</t>
+  </si>
+  <si>
+    <t>Petra</t>
+  </si>
+  <si>
+    <t>MARLIERE</t>
+  </si>
+  <si>
+    <t>Fabrice</t>
+  </si>
+  <si>
+    <t>MIHAJLOVIĆ</t>
+  </si>
+  <si>
+    <t>Domagoj</t>
+  </si>
+  <si>
+    <t>MRVOS</t>
+  </si>
+  <si>
+    <t>Luka</t>
+  </si>
+  <si>
+    <t>NATHALIE</t>
+  </si>
+  <si>
+    <t>Bocquet</t>
+  </si>
+  <si>
+    <t>PANAYOTOV</t>
+  </si>
+  <si>
+    <t>Nikolay</t>
+  </si>
+  <si>
+    <t>PARVANOVA</t>
+  </si>
+  <si>
+    <t>Milena</t>
+  </si>
+  <si>
+    <t>SILHAVY</t>
   </si>
   <si>
     <t>Jan</t>
   </si>
   <si>
-    <t>BERNBERG</t>
-  </si>
-  <si>
-    <t>Stephan</t>
-  </si>
-  <si>
-    <t>DELANEY</t>
-  </si>
-  <si>
-    <t>Lin</t>
-  </si>
-  <si>
-    <t>DÉZSI</t>
-  </si>
-  <si>
-    <t>Viktor</t>
-  </si>
-  <si>
-    <t>GURDEBEKE</t>
-  </si>
-  <si>
-    <t>Pieter</t>
-  </si>
-  <si>
-    <t>JURCOVIC</t>
-  </si>
-  <si>
-    <t>Maros</t>
-  </si>
-  <si>
-    <t>LENGYEL</t>
-  </si>
-  <si>
-    <t>Jozef</t>
-  </si>
-  <si>
-    <t>LUSA</t>
-  </si>
-  <si>
-    <t>Kaisa</t>
-  </si>
-  <si>
-    <t>NYGAARD</t>
-  </si>
-  <si>
-    <t>Jesper</t>
-  </si>
-  <si>
-    <t>PÓLAY</t>
-  </si>
-  <si>
-    <t>Gábor</t>
-  </si>
-  <si>
-    <t>REISENHOFER</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>RUANE</t>
-  </si>
-  <si>
-    <t>Cathal</t>
-  </si>
-  <si>
-    <t>SAARNIO</t>
-  </si>
-  <si>
-    <t>Karri</t>
-  </si>
-  <si>
-    <t>SILLOVA</t>
-  </si>
-  <si>
-    <t>Zuzana</t>
-  </si>
-  <si>
-    <t>SNELLSTRÖM</t>
-  </si>
-  <si>
-    <t>Johanna</t>
-  </si>
-  <si>
-    <t>María</t>
-  </si>
-  <si>
-    <t>WOLF</t>
-  </si>
-  <si>
-    <t>Andreas</t>
-  </si>
-  <si>
-    <t>DE MIGUEL</t>
-  </si>
-  <si>
-    <t>Jose Miguel</t>
-  </si>
-  <si>
-    <t>SORIANO RODRÍGUEZ</t>
+    <t>VOKOUN</t>
+  </si>
+  <si>
+    <t>Miroslav</t>
+  </si>
+  <si>
+    <t>ZOBAJ</t>
+  </si>
+  <si>
+    <t>Eugen</t>
+  </si>
+  <si>
+    <t>surnames</t>
   </si>
   <si>
     <t>names</t>
-  </si>
-  <si>
-    <t>surnames</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,13 +128,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -173,8 +169,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,61 +457,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="73.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -525,7 +511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -605,34 +591,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:M39">
-    <sortCondition ref="A2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>